--- a/Daten/Sport_Tabelle.xlsx
+++ b/Daten/Sport_Tabelle.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD07DDF0-41E5-435B-A462-416C05872956}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="176">
   <si>
     <t>Sportart</t>
   </si>
@@ -416,13 +415,171 @@
   </si>
   <si>
     <t>Alles</t>
+  </si>
+  <si>
+    <t>Mögliche Fragen</t>
+  </si>
+  <si>
+    <t>Ist es Sommer oder Winter?</t>
+  </si>
+  <si>
+    <t>wenn ja: liegt gerade Schnee (Auschluss für z.B Skifahren)</t>
+  </si>
+  <si>
+    <t>Wie lange hast du Zeit?</t>
+  </si>
+  <si>
+    <t>bzw. Welche Dauer hast du dir vorgestellt?</t>
+  </si>
+  <si>
+    <t>Antwortmöglichkeiten: paar Stunden, 1 Tag, mehr als 1 Tag.</t>
+  </si>
+  <si>
+    <t>Auschlusskriterien / oder modifikation von Sportarten.</t>
+  </si>
+  <si>
+    <t>z.B. Wandern 1 Tag/ oder Wanderntour mehrtägig.</t>
+  </si>
+  <si>
+    <t>Abschlussfragen Sportspezifisch</t>
+  </si>
+  <si>
+    <t>wahrscheinlich bzgl. Vorkenntnisse</t>
+  </si>
+  <si>
+    <t>Hast du Probleme mit Stiegensteigen?</t>
+  </si>
+  <si>
+    <t>Schließt zum Bsp. Bergsteigen und Klettern aus.</t>
+  </si>
+  <si>
+    <t>Kannst du Eislaufen?</t>
+  </si>
+  <si>
+    <t>Kannst du Inline-Skaten</t>
+  </si>
+  <si>
+    <t>Kannst du Radfahren.</t>
+  </si>
+  <si>
+    <t>Kannst du Schwimmen?</t>
+  </si>
+  <si>
+    <t>Frage die die Abschlussfragen modifiziert.</t>
+  </si>
+  <si>
+    <t>Möchtest du etwas neues Lernen?</t>
+  </si>
+  <si>
+    <t>Bist du bereit etwas neues zu versuchen?</t>
+  </si>
+  <si>
+    <t>Bist du bereit einen Kurs zu machen?</t>
+  </si>
+  <si>
+    <t>Einstiegsfragen Kategorie 1</t>
+  </si>
+  <si>
+    <t>Weiterführende Fragen (Kategorie 2)</t>
+  </si>
+  <si>
+    <t>Wie viel Budget hast du zur Verfügung?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antwortmöglichkeiten: </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt; 20€, &lt;50€, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>brauche komplette Ausrüstung.</t>
+    </r>
+  </si>
+  <si>
+    <t>(Vielleicht nach der Zeitfrage einschränken.)</t>
+  </si>
+  <si>
+    <t>Drinnen oder draußen?</t>
+  </si>
+  <si>
+    <t>Kat 1 oder Kat 2?</t>
+  </si>
+  <si>
+    <t>Nötige Ausrüstung allgemein?</t>
+  </si>
+  <si>
+    <t>Bist du bereit Ausrüstung zu kaufen?</t>
+  </si>
+  <si>
+    <t>Nötige Ausrüstuing allgemein.</t>
+  </si>
+  <si>
+    <t>z.B. Hast du ein Fahrrad</t>
+  </si>
+  <si>
+    <t>Oder bereit ein Fahrrad zu kaufen.</t>
+  </si>
+  <si>
+    <t>Vorkenntnisse allgemein</t>
+  </si>
+  <si>
+    <t>Bist du bereit neues zu lernen?</t>
+  </si>
+  <si>
+    <t>Wenn nein, dann schließen "Kannst du fragen" aus.</t>
+  </si>
+  <si>
+    <t>Kat 2</t>
+  </si>
+  <si>
+    <t>Magst du es lieber sportlich oder gemütlich?</t>
+  </si>
+  <si>
+    <t>Hast du Problem mit Nasswerden?</t>
+  </si>
+  <si>
+    <t>Suchst du eine Aktivität für eine Größere Gruppe?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Kat 3</t>
+    </r>
+  </si>
+  <si>
+    <t>Suchst du eine Herausforderung?</t>
+  </si>
+  <si>
+    <t>Wie fit bist du?</t>
+  </si>
+  <si>
+    <t>usw…</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -438,13 +595,129 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="7"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -459,9 +732,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -741,11 +1034,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="K32" sqref="J32:K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,37 +1060,37 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="10" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1237,7 +1530,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>92</v>
       </c>
@@ -1275,7 +1568,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>96</v>
       </c>
@@ -1313,7 +1606,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>100</v>
       </c>
@@ -1351,7 +1644,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>105</v>
       </c>
@@ -1389,7 +1682,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>106</v>
       </c>
@@ -1427,7 +1720,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>107</v>
       </c>
@@ -1465,7 +1758,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>120</v>
       </c>
@@ -1503,7 +1796,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>123</v>
       </c>
@@ -1541,7 +1834,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>126</v>
       </c>
@@ -1573,8 +1866,199 @@
         <v>131</v>
       </c>
     </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J30" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="M30" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="L31" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="M31" s="16"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>134</v>
+      </c>
+      <c r="D32" t="s">
+        <v>155</v>
+      </c>
+      <c r="J32" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="M32" s="16"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D33" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G33" s="4"/>
+      <c r="L33" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="M33" s="16"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B34" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C34" s="17"/>
+      <c r="D34" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="J34" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B35" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C35" s="17"/>
+      <c r="F35" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="G35" s="5"/>
+      <c r="L35" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="M35" s="16"/>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B36" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C36" s="17"/>
+      <c r="D36" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="J36" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="K36" s="15"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B37" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C37" s="17"/>
+      <c r="D37" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F37" t="s">
+        <v>173</v>
+      </c>
+      <c r="L37" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="M37" s="16"/>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B38" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C38" s="17"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D39" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="L39" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="M39" s="16"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D40" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D41" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="E41" s="16"/>
+      <c r="F41" t="s">
+        <v>175</v>
+      </c>
+      <c r="L41" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="M41" s="16"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C42" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="J42" s="14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>159</v>
+      </c>
+      <c r="J43" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J44" t="s">
+        <v>164</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>